--- a/trend_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
+++ b/trend_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.930355317156576</v>
+        <v>0.069644682843424</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.979247051047034</v>
+        <v>0.020752948952966</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.721280362387553</v>
+        <v>0.278719637612447</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.975739583242762</v>
+        <v>0.024260416757238</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.768783636774762</v>
+        <v>0.000143749579652</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.397</v>
+        <v>24</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0146546984265734</v>
+        <v>1.87773552824679</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.057373174155684</v>
+        <v>0.743427307686494</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0457114711784015</v>
+        <v>2.86171999535693</v>
       </c>
       <c r="N30" t="n">
-        <v>3.69135980518222</v>
+        <v>7.82389803436161</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,11 +3177,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3188,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.59675202974633</v>
+        <v>0.656213871288391</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0884955752212389</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.699115044247788</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>93</v>
+        <v>2.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.498092134773986</v>
+        <v>0.00291658130167</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.00283735179161</v>
+        <v>-0.068655471619827</v>
       </c>
       <c r="M31" t="n">
-        <v>2.86038677771729</v>
+        <v>0.0852710796166281</v>
       </c>
       <c r="N31" t="n">
-        <v>0.535582940617189</v>
+        <v>0.126807882681304</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3250,7 +3254,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.691036471001773</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.484</v>
+        <v>10.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.446397414611006</v>
+        <v>0.006637891867333</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.206302622579945</v>
+        <v>-0.0160131400588418</v>
       </c>
       <c r="M32" t="n">
-        <v>0.807487687052974</v>
+        <v>0.0277285799718936</v>
       </c>
       <c r="N32" t="n">
-        <v>9.955339308898431</v>
+        <v>0.0632180177841242</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,11 +3359,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3362,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.570986171506239</v>
+        <v>0.997246318929797</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.226190476190476</v>
       </c>
       <c r="H33" t="n">
+        <v>0.136904761904762</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.3985</v>
+        <v>0.007</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0029735413839891</v>
+        <v>-0.0001296380027653</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0114713666597926</v>
+        <v>-0.0002775151921768</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0108337974576177</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.746183534250727</v>
+        <v>-1.85197146807663</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,7 +3436,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3449,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.141565435331173</v>
+        <v>0.0007538176530516</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.672619047619048</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.035</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.795694290465633</v>
+        <v>6.30575292513242</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.37901673124379</v>
+        <v>2.47074501745161</v>
       </c>
       <c r="M34" t="n">
-        <v>0.267891956525068</v>
+        <v>10.6925366243703</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.828546145119627</v>
+        <v>4.85057917317879</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.762862824616335</v>
+        <v>0.966767467603327</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.840490797546012</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.196319018404908</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>4.432</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0829382258710452</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.118542293067095</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.224082522874911</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.87134986171131</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3569,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3598,7 +3618,1166 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.519246313892724</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.256578947368421</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5988143901670751</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.883116883116883</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.86175</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0019833859451113</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0139480100826023</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0079988538034289</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.230157928066298</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.609354151578552</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0017721071300289</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0096723044368684</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0121222390150321</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0237547872658036</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.889541078099277</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.922619047619048</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8915</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.007850629096273</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.019892540731998</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0020690911470123</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.880608984438925</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.945413195273454</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.654761904761905</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0091493802771705</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0167239010989011</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.88828934729811</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.922157563597219</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0001647311884222</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0003753854059609</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.0982079228151</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7043450531230711</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.868263473053892</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0066469517743403</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0330124191458746</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0215910509140443</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.48517896163068</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0146546984265734</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.057373174155684</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0457114711784015</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.69135980518222</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>93</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.498092134773986</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-5.00283735179161</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.86038677771729</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.535582940617189</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.446397414611006</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.206302622579945</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.807487687052974</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9.955339308898431</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3985</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0029735413839891</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0114713666597926</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0108337974576177</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.746183534250727</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96.035</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.795694290465633</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.37901673124379</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.267891956525068</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.828546145119627</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.762862824616335</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.432</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0829382258710452</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.118542293067095</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.224082522874911</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.87134986171131</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
+++ b/trend_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,17 +569,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.06702324810827009</v>
+        <v>0.538594399109639</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.744186046511628</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>5.83000798084597</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-8.5927277174306</v>
       </c>
       <c r="M2" t="n">
-        <v>13.1750834795271</v>
+        <v>7.50262613778942</v>
       </c>
       <c r="N2" t="n">
-        <v>10.600014510629</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.287510520833336</v>
+        <v>0.0017575986056319</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.96</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.25</v>
+        <v>0.4535</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0664732550288694</v>
+        <v>-0.599795261669024</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.757169102388184</v>
+        <v>-1.07309217827675</v>
       </c>
       <c r="M3" t="n">
-        <v>0.100309551809836</v>
+        <v>-0.178432205863199</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.31786040230955</v>
+        <v>-132.259153620512</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.069644682843424</v>
+        <v>0.016262090632664</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.625</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.09696399377189539</v>
+        <v>-0.1256215216693</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.190476594148623</v>
+        <v>-0.24113626008428</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002472746755825</v>
+        <v>-0.0393028262084874</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.912602294323721</v>
+        <v>-1.18232020394635</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0095397687767382</v>
+        <v>0.0021261537979951</v>
       </c>
       <c r="G5" t="n">
         <v>0.362068965517241</v>
       </c>
       <c r="H5" t="n">
-        <v>0.137931034482759</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.0055</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002790297937356</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001003434065934</v>
+        <v>0.0010706380562521</v>
       </c>
       <c r="N5" t="n">
-        <v>5.07326897701229</v>
+        <v>12.1628371628372</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.545414610914465</v>
+        <v>0.373697891966312</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.758620689655172</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.880120481927711</v>
+        <v>5.53850758180367</v>
       </c>
       <c r="L6" t="n">
-        <v>-51.4622544473721</v>
+        <v>-26.928796827557</v>
       </c>
       <c r="M6" t="n">
-        <v>29.1034937408836</v>
+        <v>34.7865894982833</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.374519354011792</v>
+        <v>2.52899889580076</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,24 +1024,36 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.125182330362172</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.927272727272727</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="H7" t="n">
-        <v>0.127272727272727</v>
+        <v>0.163636363636364</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -1049,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.565300579837384</v>
+        <v>0.999804640643454</v>
       </c>
       <c r="G8" t="n">
-        <v>0.189655172413793</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="H8" t="n">
         <v>0.137931034482759</v>
@@ -1122,16 +1134,16 @@
         <v>0.003</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0005324344023323</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0002182355116495</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-17.7478134110787</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0012972826185292</v>
+        <v>0.356077230625809</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1210,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.7905</v>
       </c>
       <c r="K9" t="n">
-        <v>0.108829591836735</v>
+        <v>0.0162898954703833</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0544837250995204</v>
+        <v>-0.0488490917700683</v>
       </c>
       <c r="M9" t="n">
-        <v>0.16806536788518</v>
+        <v>0.0672812998686154</v>
       </c>
       <c r="N9" t="n">
-        <v>13.3369597839136</v>
+        <v>2.06070783939067</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.020752948952966</v>
+        <v>0.0117453322015439</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.789473684210526</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.5</v>
+        <v>7.48</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0612918222844694</v>
+        <v>-0.0630234213677551</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.108327243895516</v>
+        <v>-0.112398441769401</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0125361172682055</v>
+        <v>-0.0172026004728163</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.817224297126259</v>
+        <v>-0.842559109194587</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1376,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0014807572546515</v>
+        <v>0.343665712890981</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="K11" t="n">
-        <v>0.108192972972973</v>
+        <v>0.0185577367205543</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0533114178624059</v>
+        <v>-0.0477824833503918</v>
       </c>
       <c r="M11" t="n">
-        <v>0.164717507010274</v>
+        <v>0.0675291040065107</v>
       </c>
       <c r="N11" t="n">
-        <v>13.2427139501803</v>
+        <v>2.30530890938563</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.549924191118275</v>
+        <v>0.218185321793875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.379310344827586</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.293103448275862</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>0.985</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0274624060150376</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.027497239021393</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0815463043864163</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.7880615243693</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0061625295947225</v>
+        <v>0.0971160777256639</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.810344827586207</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.975</v>
+        <v>0.013</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0787601078167116</v>
+        <v>0.0007730158730158</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0273943065021087</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.124610738054159</v>
+        <v>0.0020850349863935</v>
       </c>
       <c r="N13" t="n">
-        <v>8.077959776072991</v>
+        <v>5.94627594627595</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1645,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.36834014833435</v>
+        <v>0.433398404787029</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0145</v>
+        <v>1.075</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0133791208791209</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0009995142175928001</v>
+        <v>-0.112129944079283</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0015005460077534</v>
+        <v>0.229272422540786</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.24456938410427</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1713,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1740,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.697283699897807</v>
+        <v>0.0020575286066632</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.896551724137931</v>
+        <v>0.6702127659574471</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.24</v>
+        <v>33.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.035078031212485</v>
+        <v>3.67149046793761</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.194278697959728</v>
+        <v>1.50969890591934</v>
       </c>
       <c r="M15" t="n">
-        <v>0.121591958774592</v>
+        <v>5.83000798084597</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.82887348487782</v>
+        <v>10.9596730386197</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.008367471501231001</v>
+        <v>0.000187863776123</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H16" t="n">
-        <v>0.707070707070707</v>
+        <v>0.847222222222222</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>2.385</v>
       </c>
       <c r="K16" t="n">
-        <v>2.24131839523965</v>
+        <v>-0.289264184397163</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5655364918193529</v>
+        <v>-0.422463927798281</v>
       </c>
       <c r="M16" t="n">
-        <v>4.15557055766833</v>
+        <v>-0.137677618175873</v>
       </c>
       <c r="N16" t="n">
-        <v>7.47106131746548</v>
+        <v>-12.1284773332144</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1895,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.043369187350888</v>
+        <v>0.625512241106669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1125</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8125</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.58</v>
+        <v>10.53</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.131365065392354</v>
+        <v>0.0074897470950102</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.275590788627139</v>
+        <v>-0.0447249205375878</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.0379844006568143</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.09166920125404</v>
+        <v>0.0711277027066496</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.817336916268757</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.254237288135593</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.110169491525424</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.278719637612447</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.62</v>
+        <v>0.006</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0168141944616419</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0651250187484623</v>
+        <v>-0.0001383490441369</v>
       </c>
       <c r="M18" t="n">
-        <v>0.019999520528661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.158325748226383</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.803183483272232</v>
+        <v>0.0111682549348316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.110169491525424</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006</v>
+        <v>158</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>11.1010007412898</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0001354146510762</v>
+        <v>2.77046517509306</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>19.983282674772</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>7.0259498362594</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0037572016870092</v>
+        <v>0.652232321231921</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="H20" t="n">
-        <v>0.669491525423729</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>12.3743647656691</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4.53090548527155</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>20.8716988066171</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8.249576510446071</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9627855322087761</v>
+        <v>0.999972930306448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.876106194690266</v>
+        <v>0.177966101694915</v>
       </c>
       <c r="H21" t="n">
-        <v>0.150442477876106</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002717633928571</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003938005390835</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-0.000121635096377</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-6.79408482142857</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999235596501672</v>
+        <v>0.860529831291456</v>
       </c>
       <c r="G22" t="n">
-        <v>0.144067796610169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.127118644067797</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.84495</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0002268633540372</v>
+        <v>-0.0148527492291881</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003753854059609</v>
+        <v>-0.030902276459197</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0047038310002495</v>
       </c>
       <c r="N22" t="n">
-        <v>-5.67158385093168</v>
+        <v>-1.75782581563265</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.177675863532439</v>
+        <v>0.145205592034585</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.932203389830508</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.85445</v>
+        <v>7.47</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0111168104749728</v>
+        <v>-0.0102454619488245</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0077190199123004</v>
+        <v>-0.0271112210908551</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0283160586539361</v>
+        <v>0.0053297590907335</v>
       </c>
       <c r="N23" t="n">
-        <v>1.30104868336038</v>
+        <v>-0.137154778431386</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2542,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2559,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.024260416757238</v>
+        <v>0.829197194367769</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.660869565217391</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.49</v>
+        <v>0.85275</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0211739130434783</v>
+        <v>-0.0159043620514971</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0382827348961738</v>
+        <v>-0.0313060138747945</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.003334094020995</v>
+        <v>0.0070756317223902</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.282695768270739</v>
+        <v>-1.86506737631159</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2629,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.145332488745785</v>
+        <v>0.793827272002448</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.923728813559322</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8685</v>
+        <v>1.025</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0115356784908902</v>
+        <v>-0.0107817156695614</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.007733495023734</v>
+        <v>-0.024381614447751</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0275903917769099</v>
+        <v>0.0100846880823045</v>
       </c>
       <c r="N25" t="n">
-        <v>1.32823010833509</v>
+        <v>-1.0518746994694</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,32 +2745,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.37509452374607</v>
+        <v>0.410586152498795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.271186440677966</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.211864406779661</v>
+        <v>0.330508474576271</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0002662172011661</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0166497369263794</v>
+        <v>0.0004187856424355</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2801,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2828,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.133440870081889</v>
+        <v>0.552738883782836</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.76271186440678</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.005</v>
+        <v>1.205</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0102851991758242</v>
+        <v>-0.0044981527093596</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0060981262683814</v>
+        <v>-0.0499316473000684</v>
       </c>
       <c r="M27" t="n">
-        <v>0.026607501243977</v>
+        <v>0.0564427282629395</v>
       </c>
       <c r="N27" t="n">
-        <v>1.02340290306708</v>
+        <v>-0.373290681274656</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.389880250617079</v>
+        <v>7.41678532345714e-05</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.322033898305085</v>
+        <v>0.664429530201342</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.014</v>
+        <v>25.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.88750310559006</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0002632012461148</v>
+        <v>0.802132730437923</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004276932084309</v>
+        <v>2.85911371164462</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>7.40197296309828</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3010,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.675769887703176</v>
+        <v>0.118607594763924</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="H29" t="n">
-        <v>0.855932203389831</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0130388219544846</v>
+        <v>-0.06376226623053401</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0659134933335893</v>
+        <v>-0.132383743240818</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0440762605437572</v>
+        <v>0.0081287506333809</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.01469431552409</v>
+        <v>-2.83387849913484</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.000143749579652</v>
+        <v>0.927528274691311</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.676056338028169</v>
+        <v>0.778443113772455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="K30" t="n">
-        <v>1.87773552824679</v>
+        <v>0.0188448944686089</v>
       </c>
       <c r="L30" t="n">
-        <v>0.743427307686494</v>
+        <v>-0.0019650838542297</v>
       </c>
       <c r="M30" t="n">
-        <v>2.86171999535693</v>
+        <v>0.0400067914018869</v>
       </c>
       <c r="N30" t="n">
-        <v>7.82389803436161</v>
+        <v>0.179475185415323</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.656213871288391</v>
+        <v>0.999984015910666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0884955752212389</v>
+        <v>0.207100591715976</v>
       </c>
       <c r="H31" t="n">
-        <v>0.699115044247788</v>
+        <v>0.136094674556213</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.3</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00291658130167</v>
+        <v>-0.0002350386100386</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.068655471619827</v>
+        <v>-0.0003753854059609</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0852710796166281</v>
+        <v>-9.923712619882699e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>0.126807882681304</v>
+        <v>-3.357694429123</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3283,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.691036471001773</v>
+        <v>0.0030483627589953</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7939393939393939</v>
+        <v>0.680473372781065</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.5</v>
+        <v>134</v>
       </c>
       <c r="K32" t="n">
-        <v>0.006637891867333</v>
+        <v>5.31756141947225</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0160131400588418</v>
+        <v>1.48529696771189</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0277285799718936</v>
+        <v>9.87190777886782</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0632180177841242</v>
+        <v>3.9683294175166</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.997246318929797</v>
+        <v>0.982759810648477</v>
       </c>
       <c r="G33" t="n">
-        <v>0.226190476190476</v>
+        <v>0.823170731707317</v>
       </c>
       <c r="H33" t="n">
-        <v>0.136904761904762</v>
+        <v>0.213414634146341</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0001296380027653</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002775151921768</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.85197146807663</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0007538176530516</v>
+        <v>0.910361929923648</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.268292682926829</v>
       </c>
       <c r="H34" t="n">
-        <v>0.672619047619048</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>0.0035</v>
       </c>
       <c r="K34" t="n">
-        <v>6.30575292513242</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.47074501745161</v>
+        <v>-0.0001204628729048</v>
       </c>
       <c r="M34" t="n">
-        <v>10.6925366243703</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.85057917317879</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.966767467603327</v>
+        <v>0.831657808374286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.840490797546012</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.196319018404908</v>
+        <v>0.8963414634146341</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.843</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0059822565969062</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0170052599413749</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0027798861545229</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-0.709638979466938</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.519246313892724</v>
+        <v>0.120080123134061</v>
       </c>
       <c r="G36" t="n">
-        <v>0.256578947368421</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.105263157894737</v>
+        <v>0.590361445783133</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004</v>
+        <v>7.48</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0077588953797132</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0196502936738924</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0028346877511371</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.103728547857129</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3721,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3738,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5988143901670751</v>
+        <v>0.955157259136911</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.883116883116883</v>
+        <v>0.946745562130177</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.86175</v>
+        <v>0.872</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0019833859451113</v>
+        <v>-0.0120412087912088</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0139480100826023</v>
+        <v>-0.0224720740639421</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0079988538034289</v>
+        <v>-0.0008048161816648</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.230157928066298</v>
+        <v>-1.38087256779917</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3802,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.609354151578552</v>
+        <v>0.956743290864363</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.606060606060606</v>
+        <v>0.644970414201183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.46</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0017721071300289</v>
+        <v>-0.0112346206425154</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0096723044368684</v>
+        <v>-0.0190554649274604</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0121222390150321</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0237547872658036</v>
+        <v>-1.10143339632504</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3899,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3916,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.889541078099277</v>
+        <v>0.949759473396356</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.922619047619048</v>
+        <v>0.301775147928994</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8915</v>
+        <v>0.015</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.007850629096273</v>
+        <v>-0.0002099741304972</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.019892540731998</v>
+        <v>-0.0004258213265968</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0020690911470123</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.880608984438925</v>
+        <v>-1.39982753664846</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.945413195273454</v>
+        <v>0.887788555577943</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.654761904761905</v>
+        <v>0.85207100591716</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.38</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0091493802771705</v>
+        <v>-0.0119492911668484</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0167239010989011</v>
+        <v>-0.0472542248379032</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.009989872690813899</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.88828934729811</v>
+        <v>-0.865890664264376</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4098,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.922157563597219</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.291666666666667</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.015</v>
+        <v>0.397</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0001647311884222</v>
+        <v>-0.0136356962627184</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0003753854059609</v>
+        <v>-0.0909833390550317</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.0457114711784015</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.0982079228151</v>
+        <v>-3.43468419715828</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4160,11 +4172,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4174,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.7043450531230711</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.868263473053892</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.37</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0066469517743403</v>
+        <v>0.223760637743306</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0330124191458746</v>
+        <v>-5.00283735179161</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0215910509140443</v>
+        <v>1.00773025414362</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.48517896163068</v>
+        <v>0.23885635967475</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4251,11 +4259,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4265,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.768783636774762</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.397</v>
+        <v>4.484</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0146546984265734</v>
+        <v>-0.0547010777929418</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.057373174155684</v>
+        <v>-0.541842114414863</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0457114711784015</v>
+        <v>0.358125751797835</v>
       </c>
       <c r="N43" t="n">
-        <v>3.69135980518222</v>
+        <v>-1.21991698913786</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4352,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4367,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.59675202974633</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4379,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>93</v>
+        <v>0.3895</v>
       </c>
       <c r="K44" t="n">
-        <v>0.498092134773986</v>
+        <v>-0.0057570052539404</v>
       </c>
       <c r="L44" t="n">
-        <v>-5.00283735179161</v>
+        <v>-0.0211848945371426</v>
       </c>
       <c r="M44" t="n">
-        <v>2.86038677771729</v>
+        <v>0.0086973758688214</v>
       </c>
       <c r="N44" t="n">
-        <v>0.535582940617189</v>
+        <v>-1.47805012938138</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4439,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4454,7 +4458,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4466,19 +4470,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.484</v>
+        <v>94.035</v>
       </c>
       <c r="K45" t="n">
-        <v>0.446397414611006</v>
+        <v>-0.795694290465633</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.206302622579945</v>
+        <v>-2.33219312073209</v>
       </c>
       <c r="M45" t="n">
-        <v>0.807487687052974</v>
+        <v>0.368581294758512</v>
       </c>
       <c r="N45" t="n">
-        <v>9.955339308898431</v>
+        <v>-0.846168225092395</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4487,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4526,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4541,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.570986171506239</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4553,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3985</v>
+        <v>4.387</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0029735413839891</v>
+        <v>0.0829382258710452</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0114713666597926</v>
+        <v>-0.0703434128608718</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0108337974576177</v>
+        <v>0.219072880883128</v>
       </c>
       <c r="N46" t="n">
-        <v>0.746183534250727</v>
+        <v>1.89054538114988</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4604,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mangatainoka at u/s Pahiatua STP</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.141565435331173</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>96.035</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-0.795694290465633</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-2.37901673124379</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.267891956525068</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-0.828546145119627</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1840895</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5519593</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mangatainoka at u/s Pahiatua STP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.762862824616335</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.432</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.0829382258710452</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.118542293067095</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.224082522874911</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.87134986171131</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1840895</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5519593</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
+++ b/trend_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -91,42 +91,42 @@
     <t>Chlorophyll A</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -142,52 +142,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
     <t>Very likely increasing</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -205,19 +205,19 @@
     <t>mg/m2</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,28 +669,28 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.538594399109639</v>
+        <v>0.4673892615507</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7435897435897439</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>44.25</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>-8.5927277174306</v>
+        <v>-6.24648131224083</v>
       </c>
       <c r="M2">
-        <v>7.50262613778942</v>
+        <v>7.47099226329756</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -734,37 +734,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3">
-        <v>0.0017575986056319</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.944444444444444</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4535</v>
+        <v>10.62</v>
       </c>
       <c r="K3">
-        <v>-0.599795261669024</v>
+        <v>-0.00332187076622</v>
       </c>
       <c r="L3">
-        <v>-1.07309217827675</v>
+        <v>-0.131576863966398</v>
       </c>
       <c r="M3">
-        <v>-0.178432205863199</v>
+        <v>0.0602060439560437</v>
       </c>
       <c r="N3">
-        <v>-132.259153620512</v>
+        <v>-0.0312793857459511</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -805,37 +805,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4">
-        <v>0.016262090632664</v>
+        <v>0.09360694427497079</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.913793103448276</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.625</v>
+        <v>0.005</v>
       </c>
       <c r="K4">
-        <v>-0.1256215216693</v>
+        <v>0.0002775455927051</v>
       </c>
       <c r="L4">
-        <v>-0.24113626008428</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-0.0393028262084874</v>
+        <v>0.0007465732488218</v>
       </c>
       <c r="N4">
-        <v>-1.18232020394635</v>
+        <v>5.55091185410334</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -879,40 +879,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.0021261537979951</v>
+        <v>0.912112110652377</v>
       </c>
       <c r="G5">
-        <v>0.362068965517241</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.155172413793103</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0055</v>
+        <v>191.6</v>
       </c>
       <c r="K5">
-        <v>0.000668956043956</v>
+        <v>-24.4035164835165</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-52.8800163835913</v>
       </c>
       <c r="M5">
-        <v>0.0010706380562521</v>
+        <v>4.07040676358381</v>
       </c>
       <c r="N5">
-        <v>12.1628371628372</v>
+        <v>-12.7366996260524</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1840895</v>
@@ -950,40 +950,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>0.373697891966312</v>
+        <v>0.232729547284684</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="H6">
-        <v>0.810344827586207</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>219</v>
+        <v>0.005</v>
       </c>
       <c r="K6">
-        <v>5.53850758180367</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-26.928796827557</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>34.7865894982833</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.52899889580076</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1840895</v>
@@ -1004,7 +1004,7 @@
         <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,37 +1024,37 @@
         <v>43</v>
       </c>
       <c r="F7">
-        <v>0.125182330362172</v>
+        <v>0.999991534944493</v>
       </c>
       <c r="G7">
-        <v>0.872727272727273</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="H7">
-        <v>0.163636363636364</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0005580595874713</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0008361067756161</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0002220364741641</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-18.6019862490451</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1840895</v>
@@ -1075,7 +1075,7 @@
         <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1092,40 +1092,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>0.999804640643454</v>
+        <v>0.952309990458044</v>
       </c>
       <c r="G8">
-        <v>0.206896551724138</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.137931034482759</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0.787</v>
       </c>
       <c r="K8">
-        <v>-0.0005324344023323</v>
+        <v>-0.048354609929078</v>
       </c>
       <c r="L8">
-        <v>-0.0008553864168618</v>
+        <v>-0.0916384405516308</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0010108740651508</v>
       </c>
       <c r="N8">
-        <v>-17.7478134110787</v>
+        <v>-6.14416898717637</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1840895</v>
@@ -1146,7 +1146,7 @@
         <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1166,37 @@
         <v>41</v>
       </c>
       <c r="F9">
-        <v>0.356077230625809</v>
+        <v>0.849309102307542</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.948275862068966</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7905</v>
+        <v>7.47</v>
       </c>
       <c r="K9">
-        <v>0.0162898954703833</v>
+        <v>0.0326116071428569</v>
       </c>
       <c r="L9">
-        <v>-0.0488490917700683</v>
+        <v>-0.0186261276702074</v>
       </c>
       <c r="M9">
-        <v>0.0672812998686154</v>
+        <v>0.07241715167893401</v>
       </c>
       <c r="N9">
-        <v>2.06070783939067</v>
+        <v>0.436567699368901</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>1840895</v>
@@ -1215,9 +1215,6 @@
       </c>
       <c r="V9" t="s">
         <v>61</v>
-      </c>
-      <c r="W9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,37 +1234,37 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>0.0117453322015439</v>
+        <v>0.960163157378582</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.842105263157895</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.48</v>
+        <v>0.794</v>
       </c>
       <c r="K10">
-        <v>-0.0630234213677551</v>
+        <v>-0.0494093176376696</v>
       </c>
       <c r="L10">
-        <v>-0.112398441769401</v>
+        <v>-0.09452329457152429</v>
       </c>
       <c r="M10">
-        <v>-0.0172026004728163</v>
+        <v>-0.0040161799416428</v>
       </c>
       <c r="N10">
-        <v>-0.842559109194587</v>
+        <v>-6.22283597451758</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1840895</v>
@@ -1286,6 +1283,9 @@
       </c>
       <c r="V10" t="s">
         <v>61</v>
+      </c>
+      <c r="W10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1305,37 @@
         <v>41</v>
       </c>
       <c r="F11">
-        <v>0.343665712890981</v>
+        <v>0.975526059473437</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.805</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K11">
-        <v>0.0185577367205543</v>
+        <v>-0.0516420308483291</v>
       </c>
       <c r="L11">
-        <v>-0.0477824833503918</v>
+        <v>-0.08914407097539639</v>
       </c>
       <c r="M11">
-        <v>0.0675291040065107</v>
+        <v>-0.0118086840082843</v>
       </c>
       <c r="N11">
-        <v>2.30530890938563</v>
+        <v>-5.49383306897118</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1840895</v>
@@ -1356,7 +1356,7 @@
         <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1376,37 +1376,37 @@
         <v>41</v>
       </c>
       <c r="F12">
-        <v>0.218185321793875</v>
+        <v>0.8690467852411899</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.793103448275862</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.985</v>
+        <v>0.013</v>
       </c>
       <c r="K12">
-        <v>0.0274624060150376</v>
+        <v>-0.0006363240418118</v>
       </c>
       <c r="L12">
-        <v>-0.027497239021393</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M12">
-        <v>0.0815463043864163</v>
+        <v>0.0001865945726585</v>
       </c>
       <c r="N12">
-        <v>2.7880615243693</v>
+        <v>-4.89480032162959</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q12">
         <v>1840895</v>
@@ -1427,7 +1427,7 @@
         <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,43 +1441,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13">
-        <v>0.0971160777256639</v>
+        <v>0.844470981686881</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.517241379310345</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.013</v>
+        <v>0.95</v>
       </c>
       <c r="K13">
-        <v>0.0007730158730158</v>
+        <v>-0.0276429118888358</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.216274514367461</v>
       </c>
       <c r="M13">
-        <v>0.0020850349863935</v>
+        <v>0.0220468708062202</v>
       </c>
       <c r="N13">
-        <v>5.94627594627595</v>
+        <v>-2.90978019882482</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q13">
         <v>1840895</v>
@@ -1498,7 +1498,7 @@
         <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,10 +1506,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1518,37 +1518,37 @@
         <v>41</v>
       </c>
       <c r="F14">
-        <v>0.433398404787029</v>
+        <v>0.0239280163396351</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.896551724137931</v>
+        <v>0.696629213483146</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.075</v>
+        <v>33.5</v>
       </c>
       <c r="K14">
-        <v>0.0133791208791209</v>
+        <v>2.32152862862227</v>
       </c>
       <c r="L14">
-        <v>-0.112129944079283</v>
+        <v>0.193578847717395</v>
       </c>
       <c r="M14">
-        <v>0.229272422540786</v>
+        <v>4.69649679432728</v>
       </c>
       <c r="N14">
-        <v>1.24456938410427</v>
+        <v>6.92993620484259</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <v>1840895</v>
@@ -1569,7 +1569,7 @@
         <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1589,37 +1589,37 @@
         <v>41</v>
       </c>
       <c r="F15">
-        <v>0.0020575286066632</v>
+        <v>5.82591765719842E-05</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.112903225806452</v>
       </c>
       <c r="H15">
-        <v>0.6702127659574471</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>33.5</v>
+        <v>2.385</v>
       </c>
       <c r="K15">
-        <v>3.67149046793761</v>
+        <v>-0.403892707710699</v>
       </c>
       <c r="L15">
-        <v>1.50969890591934</v>
+        <v>-0.562826329827863</v>
       </c>
       <c r="M15">
-        <v>5.83000798084597</v>
+        <v>-0.203985290417026</v>
       </c>
       <c r="N15">
-        <v>10.9596730386197</v>
+        <v>-16.9347047258155</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q15">
         <v>1840895</v>
@@ -1640,7 +1640,7 @@
         <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1654,43 +1654,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.000187863776123</v>
+        <v>0.719435433430912</v>
       </c>
       <c r="G16">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.847222222222222</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2.385</v>
+        <v>10.595</v>
       </c>
       <c r="K16">
-        <v>-0.289264184397163</v>
+        <v>0.0188413188958079</v>
       </c>
       <c r="L16">
-        <v>-0.422463927798281</v>
+        <v>-0.027838670488611</v>
       </c>
       <c r="M16">
-        <v>-0.137677618175873</v>
+        <v>0.0544340802856499</v>
       </c>
       <c r="N16">
-        <v>-12.1284773332144</v>
+        <v>0.177832174571099</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1840895</v>
@@ -1725,43 +1725,43 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>0.891721586124324</v>
+      </c>
+      <c r="G17">
+        <v>0.279661016949153</v>
+      </c>
+      <c r="H17">
+        <v>0.110169491525424</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>0.625512241106669</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.837606837606838</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>10.53</v>
+        <v>0.006</v>
       </c>
       <c r="K17">
-        <v>0.0074897470950102</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0447249205375878</v>
+        <v>-0.0001574744624975</v>
       </c>
       <c r="M17">
-        <v>0.0379844006568143</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.0711277027066496</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1840895</v>
@@ -1799,40 +1799,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.817336916268757</v>
+        <v>0.178454756141112</v>
       </c>
       <c r="G18">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.110169491525424</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.006</v>
+        <v>164</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.11023017902813</v>
       </c>
       <c r="L18">
-        <v>-0.0001383490441369</v>
+        <v>-3.16093427199503</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.8470296200069</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.50623791404155</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1840895</v>
@@ -1870,40 +1870,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>0.0111682549348316</v>
+        <v>0.161644361399713</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.878260869565217</v>
       </c>
       <c r="H19">
-        <v>0.686440677966102</v>
+        <v>0.156521739130435</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>158</v>
+        <v>0.005</v>
       </c>
       <c r="K19">
-        <v>11.1010007412898</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2.77046517509306</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>19.983282674772</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>7.0259498362594</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1840895</v>
@@ -1924,7 +1924,7 @@
         <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1944,37 +1944,37 @@
         <v>43</v>
       </c>
       <c r="F20">
-        <v>0.652232321231921</v>
+        <v>0.999999973407064</v>
       </c>
       <c r="G20">
-        <v>0.87719298245614</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="H20">
-        <v>0.157894736842105</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0004134125636672</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.000577297181785</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-0.0002662172011661</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-13.7804187889078</v>
       </c>
       <c r="O20" t="s">
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1840895</v>
@@ -1995,7 +1995,7 @@
         <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,43 +2009,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
       </c>
       <c r="F21">
-        <v>0.999972930306448</v>
+        <v>0.990619783972951</v>
       </c>
       <c r="G21">
-        <v>0.177966101694915</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.127118644067797</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.004</v>
+        <v>0.7905</v>
       </c>
       <c r="K21">
-        <v>-0.0002717633928571</v>
+        <v>-0.0263082605344296</v>
       </c>
       <c r="L21">
-        <v>-0.0003938005390835</v>
+        <v>-0.0457925315489255</v>
       </c>
       <c r="M21">
-        <v>-0.000121635096377</v>
+        <v>-0.0115637102266128</v>
       </c>
       <c r="N21">
-        <v>-6.79408482142857</v>
+        <v>-3.32805319853632</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1840895</v>
@@ -2066,7 +2066,7 @@
         <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2080,37 +2080,37 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="F22">
-        <v>0.860529831291456</v>
+        <v>0.784337758105163</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.923728813559322</v>
+        <v>0.675213675213675</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.84495</v>
+        <v>7.47</v>
       </c>
       <c r="K22">
-        <v>-0.0148527492291881</v>
+        <v>0.0075185720181592</v>
       </c>
       <c r="L22">
-        <v>-0.030902276459197</v>
+        <v>-0.008489001079512899</v>
       </c>
       <c r="M22">
-        <v>0.0047038310002495</v>
+        <v>0.0224027524751793</v>
       </c>
       <c r="N22">
-        <v>-1.75782581563265</v>
+        <v>0.100650227820071</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
@@ -2136,9 +2136,6 @@
       <c r="V22" t="s">
         <v>61</v>
       </c>
-      <c r="W22" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
@@ -2151,43 +2148,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
       <c r="F23">
-        <v>0.145205592034585</v>
+        <v>0.99128463473711</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.672413793103448</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.47</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K23">
-        <v>-0.0102454619488245</v>
+        <v>-0.0285430384165015</v>
       </c>
       <c r="L23">
-        <v>-0.0271112210908551</v>
+        <v>-0.0456854250924293</v>
       </c>
       <c r="M23">
-        <v>0.0053297590907335</v>
+        <v>-0.0125284491520092</v>
       </c>
       <c r="N23">
-        <v>-0.137154778431386</v>
+        <v>-3.50221330263823</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1840895</v>
@@ -2206,6 +2203,9 @@
       </c>
       <c r="V23" t="s">
         <v>61</v>
+      </c>
+      <c r="W23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2225,37 +2225,37 @@
         <v>41</v>
       </c>
       <c r="F24">
-        <v>0.829197194367769</v>
+        <v>0.995601162325365</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.940677966101695</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.85275</v>
+        <v>0.99</v>
       </c>
       <c r="K24">
-        <v>-0.0159043620514971</v>
+        <v>-0.0242691484071733</v>
       </c>
       <c r="L24">
-        <v>-0.0313060138747945</v>
+        <v>-0.0439952326877506</v>
       </c>
       <c r="M24">
-        <v>0.0070756317223902</v>
+        <v>-0.0118564353034415</v>
       </c>
       <c r="N24">
-        <v>-1.86506737631159</v>
+        <v>-2.45142913203771</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1840895</v>
@@ -2276,7 +2276,7 @@
         <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,43 +2290,43 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
       </c>
       <c r="F25">
-        <v>0.793827272002448</v>
+        <v>0.949577733911336</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.711864406779661</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.025</v>
+        <v>0.014</v>
       </c>
       <c r="K25">
-        <v>-0.0107817156695614</v>
+        <v>-0.0002905727923627</v>
       </c>
       <c r="L25">
-        <v>-0.024381614447751</v>
+        <v>-0.0006286574870912</v>
       </c>
       <c r="M25">
-        <v>0.0100846880823045</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-1.0518746994694</v>
+        <v>-2.07551994544835</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1840895</v>
@@ -2347,7 +2347,7 @@
         <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2364,40 +2364,40 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>0.410586152498795</v>
+        <v>0.89629978435239</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.330508474576271</v>
+        <v>0.822033898305085</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.014</v>
+        <v>1.13</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0272574626865672</v>
       </c>
       <c r="L26">
-        <v>-0.0002662172011661</v>
+        <v>-0.07304999999999991</v>
       </c>
       <c r="M26">
-        <v>0.0004187856424355</v>
+        <v>0.0102331342978482</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-2.41216483951922</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1840895</v>
@@ -2418,7 +2418,7 @@
         <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,49 +2426,49 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
       </c>
       <c r="F27">
-        <v>0.552738883782836</v>
+        <v>0.0001741105898966</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.847457627118644</v>
+        <v>0.655405405405405</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.205</v>
+        <v>23.5</v>
       </c>
       <c r="K27">
-        <v>-0.0044981527093596</v>
+        <v>1.35074527012213</v>
       </c>
       <c r="L27">
-        <v>-0.0499316473000684</v>
+        <v>0.571913806513585</v>
       </c>
       <c r="M27">
-        <v>0.0564427282629395</v>
+        <v>2.30552460805352</v>
       </c>
       <c r="N27">
-        <v>-0.373290681274656</v>
+        <v>5.74785221328567</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q27">
         <v>1840895</v>
@@ -2489,7 +2489,7 @@
         <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,49 +2497,49 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
       </c>
       <c r="F28">
-        <v>7.41678532345714E-05</v>
+        <v>0.060800619761868</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="H28">
-        <v>0.664429530201342</v>
+        <v>0.747572815533981</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>25.5</v>
+        <v>2.3</v>
       </c>
       <c r="K28">
-        <v>1.88750310559006</v>
+        <v>-0.0856212079426365</v>
       </c>
       <c r="L28">
-        <v>0.802132730437923</v>
+        <v>-0.16984020319635</v>
       </c>
       <c r="M28">
-        <v>2.85911371164462</v>
+        <v>-0.0031818497255066</v>
       </c>
       <c r="N28">
-        <v>7.40197296309828</v>
+        <v>-3.72266121489724</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1840895</v>
@@ -2560,7 +2560,7 @@
         <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,43 +2574,43 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
       </c>
       <c r="F29">
-        <v>0.118607594763924</v>
+        <v>0.94837886665295</v>
       </c>
       <c r="G29">
-        <v>0.0925925925925926</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.722222222222222</v>
+        <v>0.774566473988439</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2.25</v>
+        <v>10.53</v>
       </c>
       <c r="K29">
-        <v>-0.06376226623053401</v>
+        <v>0.0215849355811744</v>
       </c>
       <c r="L29">
-        <v>-0.132383743240818</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.0081287506333809</v>
+        <v>0.0425779475988294</v>
       </c>
       <c r="N29">
-        <v>-2.83387849913484</v>
+        <v>0.20498514322103</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q29">
         <v>1840895</v>
@@ -2645,43 +2645,43 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
       <c r="F30">
-        <v>0.927528274691311</v>
+        <v>0.9999942425644049</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="H30">
-        <v>0.778443113772455</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>10.5</v>
+        <v>0.006</v>
       </c>
       <c r="K30">
-        <v>0.0188448944686089</v>
+        <v>-0.0002204728370221</v>
       </c>
       <c r="L30">
-        <v>-0.0019650838542297</v>
+        <v>-0.0003382111212143</v>
       </c>
       <c r="M30">
-        <v>0.0400067914018869</v>
+        <v>-9.15413533834587E-05</v>
       </c>
       <c r="N30">
-        <v>0.179475185415323</v>
+        <v>-3.67454728370221</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1840895</v>
@@ -2716,43 +2716,43 @@
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.999984015910666</v>
+        <v>0.0034962303858689</v>
       </c>
       <c r="G31">
-        <v>0.207100591715976</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.136094674556213</v>
+        <v>0.695402298850575</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.007</v>
+        <v>136.4</v>
       </c>
       <c r="K31">
-        <v>-0.0002350386100386</v>
+        <v>4.84131075110457</v>
       </c>
       <c r="L31">
-        <v>-0.0003753854059609</v>
+        <v>1.50071036247305</v>
       </c>
       <c r="M31">
-        <v>-9.923712619882699E-05</v>
+        <v>8.746344898577551</v>
       </c>
       <c r="N31">
-        <v>-3.357694429123</v>
+        <v>3.54934805799455</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q31">
         <v>1840895</v>
@@ -2787,43 +2787,43 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F32">
-        <v>0.0030483627589953</v>
+        <v>0.975731264510042</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.8165680473372779</v>
       </c>
       <c r="H32">
-        <v>0.680473372781065</v>
+        <v>0.218934911242604</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>134</v>
+        <v>0.005</v>
       </c>
       <c r="K32">
-        <v>5.31756141947225</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1.48529696771189</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>9.87190777886782</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>3.9683294175166</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1840895</v>
@@ -2844,7 +2844,7 @@
         <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2861,28 +2861,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33">
-        <v>0.982759810648477</v>
+        <v>0.990165055485758</v>
       </c>
       <c r="G33">
-        <v>0.823170731707317</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="H33">
-        <v>0.213414634146341</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-0.0001392857660964</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1840895</v>
@@ -2915,7 +2915,7 @@
         <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,43 +2929,43 @@
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>0.910361929923648</v>
+        <v>0.932860314455833</v>
       </c>
       <c r="G34">
-        <v>0.268292682926829</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.0975609756097561</v>
+        <v>0.885057471264368</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.0035</v>
+        <v>0.80935</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-0.0093140252262133</v>
       </c>
       <c r="L34">
-        <v>-0.0001204628729048</v>
+        <v>-0.0180979121863284</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.0005036388751079</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-1.15080314155969</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1840895</v>
@@ -2986,7 +2986,7 @@
         <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3000,43 +3000,43 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
       </c>
       <c r="F35">
-        <v>0.831657808374286</v>
+        <v>0.07156050839356699</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.8963414634146341</v>
+        <v>0.584795321637427</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.843</v>
+        <v>7.5</v>
       </c>
       <c r="K35">
-        <v>-0.0059822565969062</v>
+        <v>-0.0087695078031214</v>
       </c>
       <c r="L35">
-        <v>-0.0170052599413749</v>
+        <v>-0.0193253968253968</v>
       </c>
       <c r="M35">
-        <v>0.0027798861545229</v>
+        <v>0.00088954631476</v>
       </c>
       <c r="N35">
-        <v>-0.709638979466938</v>
+        <v>-0.116926770708286</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q35">
         <v>1840895</v>
@@ -3055,9 +3055,6 @@
       </c>
       <c r="V35" t="s">
         <v>61</v>
-      </c>
-      <c r="W35" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3071,43 +3068,43 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="F36">
-        <v>0.120080123134061</v>
+        <v>0.942040199601541</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.590361445783133</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.48</v>
+        <v>0.82485</v>
       </c>
       <c r="K36">
-        <v>-0.0077588953797132</v>
+        <v>-0.0112346206425154</v>
       </c>
       <c r="L36">
-        <v>-0.0196502936738924</v>
+        <v>-0.0192378763547534</v>
       </c>
       <c r="M36">
-        <v>0.0028346877511371</v>
+        <v>9.942013623802791E-05</v>
       </c>
       <c r="N36">
-        <v>-0.103728547857129</v>
+        <v>-1.36201983906351</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q36">
         <v>1840895</v>
@@ -3126,6 +3123,9 @@
       </c>
       <c r="V36" t="s">
         <v>61</v>
+      </c>
+      <c r="W36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,37 +3145,37 @@
         <v>41</v>
       </c>
       <c r="F37">
-        <v>0.955157259136911</v>
+        <v>0.985673311116456</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.946745562130177</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.872</v>
+        <v>0.99</v>
       </c>
       <c r="K37">
-        <v>-0.0120412087912088</v>
+        <v>-0.0114842788790157</v>
       </c>
       <c r="L37">
-        <v>-0.0224720740639421</v>
+        <v>-0.0190416244101367</v>
       </c>
       <c r="M37">
-        <v>-0.0008048161816648</v>
+        <v>-0.0032624655375733</v>
       </c>
       <c r="N37">
-        <v>-1.38087256779917</v>
+        <v>-1.16002816959755</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q37">
         <v>1840895</v>
@@ -3196,7 +3196,7 @@
         <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,43 +3210,43 @@
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
       <c r="F38">
-        <v>0.956743290864363</v>
+        <v>0.9943117978220311</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.644970414201183</v>
+        <v>0.281609195402299</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.02</v>
+        <v>0.014</v>
       </c>
       <c r="K38">
-        <v>-0.0112346206425154</v>
+        <v>-0.0002785332994407</v>
       </c>
       <c r="L38">
-        <v>-0.0190554649274604</v>
+        <v>-0.0004560117198291</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-8.75932375756578E-05</v>
       </c>
       <c r="N38">
-        <v>-1.10143339632504</v>
+        <v>-1.98952356743409</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1840895</v>
@@ -3267,7 +3267,7 @@
         <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3281,43 +3281,43 @@
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
       <c r="F39">
-        <v>0.949759473396356</v>
+        <v>0.992982159231745</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.301775147928994</v>
+        <v>0.816091954022989</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.015</v>
+        <v>1.32</v>
       </c>
       <c r="K39">
-        <v>-0.0002099741304972</v>
+        <v>-0.03330547112462</v>
       </c>
       <c r="L39">
-        <v>-0.0004258213265968</v>
+        <v>-0.0650980778464534</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.0076119415161722</v>
       </c>
       <c r="N39">
-        <v>-1.39982753664846</v>
+        <v>-2.52314175186515</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q39">
         <v>1840895</v>
@@ -3338,7 +3338,7 @@
         <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3346,49 +3346,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
       <c r="F40">
-        <v>0.887788555577943</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.85207100591716</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.38</v>
+        <v>0.391</v>
       </c>
       <c r="K40">
-        <v>-0.0119492911668484</v>
+        <v>-0.0126754421042742</v>
       </c>
       <c r="L40">
-        <v>-0.0472542248379032</v>
+        <v>-0.0909833390550317</v>
       </c>
       <c r="M40">
-        <v>0.009989872690813899</v>
+        <v>0.0637645177360347</v>
       </c>
       <c r="N40">
-        <v>-0.865890664264376</v>
+        <v>-3.2418010496865</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1840895</v>
@@ -3407,9 +3407,6 @@
       </c>
       <c r="V40" t="s">
         <v>61</v>
-      </c>
-      <c r="W40" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3417,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3441,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.397</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="K41">
-        <v>-0.0136356962627184</v>
+        <v>-0.598984912391838</v>
       </c>
       <c r="L41">
-        <v>-0.0909833390550317</v>
+        <v>-5.00283735179161</v>
       </c>
       <c r="M41">
-        <v>0.0457114711784015</v>
+        <v>1.02039542172056</v>
       </c>
       <c r="N41">
-        <v>-3.43468419715828</v>
+        <v>-0.636743820975697</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
@@ -3485,7 +3482,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3497,7 +3494,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3509,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>93.68000000000001</v>
+        <v>4.484</v>
       </c>
       <c r="K42">
-        <v>0.223760637743306</v>
+        <v>0.0181397195448316</v>
       </c>
       <c r="L42">
-        <v>-5.00283735179161</v>
+        <v>-0.675420774269829</v>
       </c>
       <c r="M42">
-        <v>1.00773025414362</v>
+        <v>0.330602376465637</v>
       </c>
       <c r="N42">
-        <v>0.23885635967475</v>
+        <v>0.404543254791069</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
@@ -3553,10 +3550,10 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3565,7 +3562,7 @@
         <v>41</v>
       </c>
       <c r="F43">
-        <v>0.40324797025367</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3577,25 +3574,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4.484</v>
+        <v>0.394</v>
       </c>
       <c r="K43">
-        <v>-0.0547010777929418</v>
+        <v>-0.0075090186190845</v>
       </c>
       <c r="L43">
-        <v>-0.541842114414863</v>
+        <v>-0.0214371642811489</v>
       </c>
       <c r="M43">
-        <v>0.358125751797835</v>
+        <v>0.0060479524870172</v>
       </c>
       <c r="N43">
-        <v>-1.21991698913786</v>
+        <v>-1.90584228910776</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1840895</v>
@@ -3621,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3633,7 +3630,7 @@
         <v>41</v>
       </c>
       <c r="F44">
-        <v>0.360257393568128</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3645,25 +3642,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.3895</v>
+        <v>95.13</v>
       </c>
       <c r="K44">
-        <v>-0.0057570052539404</v>
+        <v>-1.01511038961038</v>
       </c>
       <c r="L44">
-        <v>-0.0211848945371426</v>
+        <v>-2.33219312073209</v>
       </c>
       <c r="M44">
-        <v>0.0086973758688214</v>
+        <v>0.556813436793322</v>
       </c>
       <c r="N44">
-        <v>-1.47805012938138</v>
+        <v>-1.06707704153304</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q44">
         <v>1840895</v>
@@ -3689,7 +3686,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -3701,7 +3698,7 @@
         <v>41</v>
       </c>
       <c r="F45">
-        <v>0.141565435331173</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3713,25 +3710,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>94.035</v>
+        <v>4.439</v>
       </c>
       <c r="K45">
-        <v>-0.795694290465633</v>
+        <v>0.0643980484522207</v>
       </c>
       <c r="L45">
-        <v>-2.33219312073209</v>
+        <v>-0.09731651265533089</v>
       </c>
       <c r="M45">
-        <v>0.368581294758512</v>
+        <v>0.220868800487041</v>
       </c>
       <c r="N45">
-        <v>-0.846168225092395</v>
+        <v>1.450733238392</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1840895</v>
@@ -3749,74 +3746,6 @@
         <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46">
-        <v>0.894751149972331</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>4.387</v>
-      </c>
-      <c r="K46">
-        <v>0.0829382258710452</v>
-      </c>
-      <c r="L46">
-        <v>-0.0703434128608718</v>
-      </c>
-      <c r="M46">
-        <v>0.219072880883128</v>
-      </c>
-      <c r="N46">
-        <v>1.89054538114988</v>
-      </c>
-      <c r="O46" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q46">
-        <v>1840895</v>
-      </c>
-      <c r="R46">
-        <v>5519593</v>
-      </c>
-      <c r="S46" t="s">
-        <v>58</v>
-      </c>
-      <c r="T46" t="s">
-        <v>59</v>
-      </c>
-      <c r="U46" t="s">
-        <v>60</v>
-      </c>
-      <c r="V46" t="s">
         <v>61</v>
       </c>
     </row>
